--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.71453474153411</v>
+        <v>1.399915</v>
       </c>
       <c r="H2">
-        <v>5.71453474153411</v>
+        <v>4.199745</v>
       </c>
       <c r="I2">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="J2">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.8347313821402</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N2">
-        <v>45.8347313821402</v>
+        <v>138.752804</v>
       </c>
       <c r="O2">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P2">
-        <v>0.957434808969601</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q2">
-        <v>261.9241648521239</v>
+        <v>64.74737720388667</v>
       </c>
       <c r="R2">
-        <v>261.9241648521239</v>
+        <v>582.7263948349799</v>
       </c>
       <c r="S2">
-        <v>0.6983325775729519</v>
+        <v>0.1359108109379087</v>
       </c>
       <c r="T2">
-        <v>0.6983325775729519</v>
+        <v>0.1359108109379087</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.71453474153411</v>
+        <v>1.399915</v>
       </c>
       <c r="H3">
-        <v>5.71453474153411</v>
+        <v>4.199745</v>
       </c>
       <c r="I3">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="J3">
-        <v>0.7293787222176547</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.03769915072073</v>
+        <v>0.01632333333333333</v>
       </c>
       <c r="N3">
-        <v>2.03769915072073</v>
+        <v>0.04897</v>
       </c>
       <c r="O3">
-        <v>0.04256519103039897</v>
+        <v>0.0003377190931065126</v>
       </c>
       <c r="P3">
-        <v>0.04256519103039897</v>
+        <v>0.0003377190931065127</v>
       </c>
       <c r="Q3">
-        <v>11.64450258958816</v>
+        <v>0.02285127918333333</v>
       </c>
       <c r="R3">
-        <v>11.64450258958816</v>
+        <v>0.20566151265</v>
       </c>
       <c r="S3">
-        <v>0.03104614464470278</v>
+        <v>4.796697594399167E-05</v>
       </c>
       <c r="T3">
-        <v>0.03104614464470278</v>
+        <v>4.796697594399166E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.12026296706813</v>
+        <v>1.399915</v>
       </c>
       <c r="H4">
-        <v>2.12026296706813</v>
+        <v>4.199745</v>
       </c>
       <c r="I4">
-        <v>0.2706212777823454</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="J4">
-        <v>0.2706212777823454</v>
+        <v>0.1420321708872511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.8347313821402</v>
+        <v>2.066797333333333</v>
       </c>
       <c r="N4">
-        <v>45.8347313821402</v>
+        <v>6.200391999999999</v>
       </c>
       <c r="O4">
-        <v>0.957434808969601</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="P4">
-        <v>0.957434808969601</v>
+        <v>0.04276068538176181</v>
       </c>
       <c r="Q4">
-        <v>97.18168355506731</v>
+        <v>2.893340588893333</v>
       </c>
       <c r="R4">
-        <v>97.18168355506731</v>
+        <v>26.04006530003999</v>
       </c>
       <c r="S4">
-        <v>0.2591022313966492</v>
+        <v>0.006073392973398373</v>
       </c>
       <c r="T4">
-        <v>0.2591022313966492</v>
+        <v>0.006073392973398372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.12026296706813</v>
+        <v>5.864004666666666</v>
       </c>
       <c r="H5">
-        <v>2.12026296706813</v>
+        <v>17.592014</v>
       </c>
       <c r="I5">
-        <v>0.2706212777823454</v>
+        <v>0.5949484882293837</v>
       </c>
       <c r="J5">
-        <v>0.2706212777823454</v>
+        <v>0.5949484882293836</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.03769915072073</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N5">
-        <v>2.03769915072073</v>
+        <v>138.752804</v>
       </c>
       <c r="O5">
-        <v>0.04256519103039897</v>
+        <v>0.9569015955251317</v>
       </c>
       <c r="P5">
-        <v>0.04256519103039897</v>
+        <v>0.9569015955251318</v>
       </c>
       <c r="Q5">
-        <v>4.320458047299343</v>
+        <v>271.2156967230284</v>
       </c>
       <c r="R5">
-        <v>4.320458047299343</v>
+        <v>2440.941270507256</v>
       </c>
       <c r="S5">
-        <v>0.0115190463856962</v>
+        <v>0.5693071576419623</v>
       </c>
       <c r="T5">
-        <v>0.0115190463856962</v>
+        <v>0.5693071576419623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.864004666666666</v>
+      </c>
+      <c r="H6">
+        <v>17.592014</v>
+      </c>
+      <c r="I6">
+        <v>0.5949484882293837</v>
+      </c>
+      <c r="J6">
+        <v>0.5949484882293836</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.04897</v>
+      </c>
+      <c r="O6">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P6">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q6">
+        <v>0.09572010284222221</v>
+      </c>
+      <c r="R6">
+        <v>0.8614809255799999</v>
+      </c>
+      <c r="S6">
+        <v>0.0002009254638899182</v>
+      </c>
+      <c r="T6">
+        <v>0.0002009254638899182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.864004666666666</v>
+      </c>
+      <c r="H7">
+        <v>17.592014</v>
+      </c>
+      <c r="I7">
+        <v>0.5949484882293837</v>
+      </c>
+      <c r="J7">
+        <v>0.5949484882293836</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N7">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P7">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q7">
+        <v>12.11970920772089</v>
+      </c>
+      <c r="R7">
+        <v>109.077382869488</v>
+      </c>
+      <c r="S7">
+        <v>0.0254404051235315</v>
+      </c>
+      <c r="T7">
+        <v>0.02544040512353149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3047273333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.9141819999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="J8">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N8">
+        <v>138.752804</v>
+      </c>
+      <c r="O8">
+        <v>0.9569015955251317</v>
+      </c>
+      <c r="P8">
+        <v>0.9569015955251318</v>
+      </c>
+      <c r="Q8">
+        <v>14.09392398514755</v>
+      </c>
+      <c r="R8">
+        <v>126.845315866328</v>
+      </c>
+      <c r="S8">
+        <v>0.02958446690569052</v>
+      </c>
+      <c r="T8">
+        <v>0.02958446690569053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3047273333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.9141819999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="J9">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.04897</v>
+      </c>
+      <c r="O9">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P9">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q9">
+        <v>0.004974165837777777</v>
+      </c>
+      <c r="R9">
+        <v>0.04476749254</v>
+      </c>
+      <c r="S9">
+        <v>1.044124012349087E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.044124012349087E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3047273333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.9141819999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="J10">
+        <v>0.03091693758693657</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N10">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P10">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q10">
+        <v>0.629809639927111</v>
+      </c>
+      <c r="R10">
+        <v>5.668286759343999</v>
+      </c>
+      <c r="S10">
+        <v>0.001322029441122561</v>
+      </c>
+      <c r="T10">
+        <v>0.001322029441122561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.287676333333333</v>
+      </c>
+      <c r="H11">
+        <v>6.863029</v>
+      </c>
+      <c r="I11">
+        <v>0.2321024032964287</v>
+      </c>
+      <c r="J11">
+        <v>0.2321024032964286</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N11">
+        <v>138.752804</v>
+      </c>
+      <c r="O11">
+        <v>0.9569015955251317</v>
+      </c>
+      <c r="P11">
+        <v>0.9569015955251318</v>
+      </c>
+      <c r="Q11">
+        <v>105.8071686314795</v>
+      </c>
+      <c r="R11">
+        <v>952.2645176833159</v>
+      </c>
+      <c r="S11">
+        <v>0.2220991600395702</v>
+      </c>
+      <c r="T11">
+        <v>0.2220991600395702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.287676333333333</v>
+      </c>
+      <c r="H12">
+        <v>6.863029</v>
+      </c>
+      <c r="I12">
+        <v>0.2321024032964287</v>
+      </c>
+      <c r="J12">
+        <v>0.2321024032964286</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.01632333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.04897</v>
+      </c>
+      <c r="O12">
+        <v>0.0003377190931065126</v>
+      </c>
+      <c r="P12">
+        <v>0.0003377190931065127</v>
+      </c>
+      <c r="Q12">
+        <v>0.03734250334777777</v>
+      </c>
+      <c r="R12">
+        <v>0.33608253013</v>
+      </c>
+      <c r="S12">
+        <v>7.838541314911194E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.838541314911194E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.287676333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.863029</v>
+      </c>
+      <c r="I13">
+        <v>0.2321024032964287</v>
+      </c>
+      <c r="J13">
+        <v>0.2321024032964286</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.066797333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.200391999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="P13">
+        <v>0.04276068538176181</v>
+      </c>
+      <c r="Q13">
+        <v>4.72816334526311</v>
+      </c>
+      <c r="R13">
+        <v>42.55347010736799</v>
+      </c>
+      <c r="S13">
+        <v>0.009924857843709382</v>
+      </c>
+      <c r="T13">
+        <v>0.009924857843709381</v>
       </c>
     </row>
   </sheetData>
